--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping Template Microsoft Dynamics.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping Template Microsoft Dynamics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicoHahn\snapADDY GmbH\Sebastian Metzger - 01_Product\Technik\Mapping\Vorlagen CRM Mapping\VisitReport\Englisch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Entwicklung\Git\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{288A86B8-DE11-411E-9C86-8EAADFE41B13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D63AAD98-432D-4EC9-A5F5-1A8E5F69DFA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>6</v>
@@ -1293,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>6</v>
